--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1303467.986786914</v>
+        <v>1301215.907075705</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>133.3353942071033</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>326.4523041199381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.5184402832008</v>
       </c>
       <c r="X4" t="n">
-        <v>34.12489344345487</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>42.64559995940225</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>8.276279573899627</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.9786181363412</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>68.85005436466977</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>302.4744936868177</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>295.4325326002347</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.380068175848605</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>34.45703212904674</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>80.33989744908892</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.839588425939787</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520959</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.2851635392039</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027139</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336592</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>153.5842618151913</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>61.66004604094956</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>214.0780236353769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>146.5235739004486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1561.90077266991</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1561.90077266991</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1561.90077266991</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.90077266991</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4403436627018</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3282.529458013814</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3282.529458013814</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3028.99898128765</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.936093944079</v>
+        <v>2747.447050436851</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>136.0576258914458</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>136.0576258914458</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.425065783662</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X7" t="n">
-        <v>1416.425065783662</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y7" t="n">
-        <v>1195.632486640132</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.807527238424</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C8" t="n">
-        <v>1221.845010298012</v>
+        <v>1863.635716540142</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1505.370017933392</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278357</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1920.850034779555</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1920.850034779555</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1699.083419349081</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5018,28 +5018,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5361,19 +5361,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>802.9288273958728</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>633.9926444679659</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>483.8760050556301</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2445.104913453049</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2445.104913453049</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1936.428221820188</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>984.5772922261125</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5516,19 +5516,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2253.366709591043</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2253.366709591043</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1964.291482935241</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1709.606994729354</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1420.189824692393</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1192.200273794376</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,61 +5978,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>701.4712640439268</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>532.5350811160199</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2384.680208791423</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2165.078743814364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1621.319028952675</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.901858915714</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.912308017697</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>883.1197288741665</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,34 +7391,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2049.058935487114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>66.09406519748025</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>64.53565828418191</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.74112246244071</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.0033420516659</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>13.66255928343651</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>119.366239960695</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>72.44497470121411</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>70.88187642683968</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487164</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487168</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140037</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.352226940478431e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26451,7 +26451,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1034407.69139356</v>
+        <v>-1034407.691393561</v>
       </c>
       <c r="C6" t="n">
         <v>294337.054334032</v>
       </c>
       <c r="D6" t="n">
-        <v>294337.0543340315</v>
+        <v>294337.0543340319</v>
       </c>
       <c r="E6" t="n">
-        <v>46585.93593094811</v>
+        <v>46551.19800551188</v>
       </c>
       <c r="F6" t="n">
-        <v>371998.397738303</v>
+        <v>371963.6598128674</v>
       </c>
       <c r="G6" t="n">
-        <v>371998.397738303</v>
+        <v>371963.6598128676</v>
       </c>
       <c r="H6" t="n">
-        <v>371998.397738303</v>
+        <v>371963.6598128673</v>
       </c>
       <c r="I6" t="n">
-        <v>371998.3977383029</v>
+        <v>371963.6598128674</v>
       </c>
       <c r="J6" t="n">
-        <v>154467.1953410257</v>
+        <v>154432.4574155899</v>
       </c>
       <c r="K6" t="n">
-        <v>371998.3977383031</v>
+        <v>371963.6598128673</v>
       </c>
       <c r="L6" t="n">
-        <v>371998.3977383027</v>
+        <v>371963.6598128673</v>
       </c>
       <c r="M6" t="n">
-        <v>286943.3698027912</v>
+        <v>286908.6318773553</v>
       </c>
       <c r="N6" t="n">
-        <v>371998.3977383031</v>
+        <v>371963.6598128671</v>
       </c>
       <c r="O6" t="n">
-        <v>371998.397738303</v>
+        <v>371963.6598128674</v>
       </c>
       <c r="P6" t="n">
-        <v>371998.3977383032</v>
+        <v>371963.6598128673</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>249.3984474563773</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.47806595232367</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.0045580533902</v>
       </c>
       <c r="X4" t="n">
-        <v>191.5847619455823</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>66.5421618287736</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>319.4759788962353</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.8533620455961</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.50236604516832</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>52.20854793386525</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>111.4435131414768</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>82.55208449419871</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899029</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
